--- a/29-Life State Effects 生命状态效果.xlsx
+++ b/29-Life State Effects 生命状态效果.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="47">
   <si>
     <t>State-Only Effects</t>
   </si>
@@ -76,6 +76,27 @@
   <si>
     <t>【末日】
 此Buff自然过期时，直接杀死目标。</t>
+  </si>
+  <si>
+    <t>&lt;Extinct&gt;</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">【灭绝】
+当应用于目标时，该目标将不再能够复活或被复活，直到该状态被移除。
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-这将抑制“Auto Life”效果。
+-这不会压制敌人的死亡转变。</t>
+    </r>
   </si>
   <si>
     <t>Trait-Object Effects</t>
@@ -484,22 +505,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF7030A0"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="10"/>
       <color rgb="FF0070C0"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF7030A0"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1337,16 +1358,16 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="30.5" customWidth="1"/>
-    <col min="2" max="2" width="60.5" customWidth="1"/>
+    <col min="2" max="2" width="64.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="18.75" spans="1:2">
@@ -1382,34 +1403,34 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" ht="18.75" spans="1:2">
-      <c r="A5" s="3" t="s">
+    <row r="4" ht="51" spans="1:3">
+      <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B4" s="4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="6" ht="40.5" spans="1:3">
-      <c r="A6" s="5" t="s">
+      <c r="C4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" ht="18.75" spans="1:2">
+      <c r="A6" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C6" t="s">
+    </row>
+    <row r="7" ht="40.5" spans="1:3">
+      <c r="A7" s="5" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="7" ht="40.5" spans="1:3">
-      <c r="A7" t="s">
+      <c r="B7" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="C7" t="s">
         <v>14</v>
-      </c>
-      <c r="C7" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="8" ht="40.5" spans="1:3">
@@ -1420,21 +1441,21 @@
         <v>16</v>
       </c>
       <c r="C8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" ht="81" spans="1:3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" ht="40.5" spans="1:3">
       <c r="A9" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="5" t="s">
         <v>18</v>
       </c>
       <c r="C9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" ht="40.5" spans="1:3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" ht="81" spans="1:3">
       <c r="A10" t="s">
         <v>19</v>
       </c>
@@ -1442,26 +1463,37 @@
         <v>20</v>
       </c>
       <c r="C10" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" ht="18.75" spans="1:2">
-      <c r="A12" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" ht="40.5" spans="1:3">
+      <c r="A11" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B11" s="4" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="13" ht="265.5" spans="1:3">
-      <c r="A13" s="5" t="s">
+      <c r="C11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" ht="18.75" spans="1:2">
+      <c r="A13" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C13" t="s">
+    </row>
+    <row r="14" ht="265.5" spans="1:3">
+      <c r="A14" s="5" t="s">
         <v>25</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -1489,77 +1521,77 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="2:3">
       <c r="B3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="2:3">
       <c r="B4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="2:3">
       <c r="B5" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="2:3">
       <c r="B6" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="2:3">
       <c r="B7" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="2:3">
       <c r="B8" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9" spans="2:3">
       <c r="B9" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
